--- a/legislator/property/output/normal/孔文吉_2012-04-26_財產申報表_tmpfed71.xlsx
+++ b/legislator/property/output/normal/孔文吉_2012-04-26_財產申報表_tmpfed71.xlsx
@@ -15,18 +15,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="31">
-  <si>
-    <t>土地坐落</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>權利範圍(持分）</t>
-  </si>
-  <si>
-    <t>所有權人</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="45">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>南投縣仁愛郷廬山段06760000地號</t>
+  </si>
+  <si>
+    <t>南投縣仁愛鄉廬山段06760001地號</t>
+  </si>
+  <si>
+    <t>南投縣仁愛鄉廬山段06770000地號</t>
+  </si>
+  <si>
+    <t>宜蘭縣南澳郷東岳段08680001地號</t>
+  </si>
+  <si>
+    <t>宜蘭縣南澳鄉東岳段07280013地號</t>
+  </si>
+  <si>
+    <t>宜蘭縣南澳鄉東岳段07280001地號</t>
+  </si>
+  <si>
+    <t>2分之1</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>孔文吉</t>
+  </si>
+  <si>
+    <t>陳秋月</t>
+  </si>
+  <si>
+    <t>95年10月03日</t>
+  </si>
+  <si>
+    <t>98年10月03日</t>
+  </si>
+  <si>
+    <t>95年08月28日</t>
+  </si>
+  <si>
+    <t>93年05月18日</t>
+  </si>
+  <si>
+    <t>95年09月13B</t>
+  </si>
+  <si>
+    <t>100年05月31曰</t>
+  </si>
+  <si>
+    <t>受贈</t>
+  </si>
+  <si>
+    <t>其他原因</t>
+  </si>
+  <si>
+    <t>贈與</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2012-04-26</t>
+  </si>
+  <si>
+    <t>tmpfed71</t>
+  </si>
+  <si>
+    <t>廠牌型號</t>
+  </si>
+  <si>
+    <t>汽缸容量</t>
+  </si>
+  <si>
+    <t>所有人</t>
   </si>
   <si>
     <t>登記（取得）時間</t>
@@ -38,76 +146,10 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>南投縣仁愛郷廬山段0676-0000 地號</t>
-  </si>
-  <si>
-    <t>南投縣仁愛鄉廬山段0676-0001 地號</t>
-  </si>
-  <si>
-    <t>南投縣仁愛鄉廬山段0677-0000 地號</t>
-  </si>
-  <si>
-    <t>宜蘭縣南澳郷東岳段0868-0001 地號</t>
-  </si>
-  <si>
-    <t>宜蘭縣南澳鄉東岳段0728-0013 地號</t>
-  </si>
-  <si>
-    <t>宜蘭縣南澳鄉東岳段0728-0001 地號</t>
-  </si>
-  <si>
-    <t>2分之1</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>孔文吉</t>
-  </si>
-  <si>
-    <t>陳秋月</t>
-  </si>
-  <si>
-    <t>95年10月 03日</t>
-  </si>
-  <si>
-    <t>98年10月 03日</t>
-  </si>
-  <si>
-    <t>95年08月 28日</t>
-  </si>
-  <si>
-    <t>93年05月 18日</t>
-  </si>
-  <si>
-    <t>95年09月 13 B</t>
-  </si>
-  <si>
-    <t>100 年 05 月31曰</t>
-  </si>
-  <si>
-    <t>受贈</t>
-  </si>
-  <si>
-    <t>其他原因</t>
-  </si>
-  <si>
-    <t>贈與</t>
-  </si>
-  <si>
-    <t>廠牌型號</t>
-  </si>
-  <si>
-    <t>汽缸容量</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
-    <t>中華-自小貨</t>
-  </si>
-  <si>
-    <t>98年01月 31闩</t>
+    <t>中華自小貨</t>
+  </si>
+  <si>
+    <t>98年01月31闩</t>
   </si>
 </sst>
 </file>
@@ -466,13 +508,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -494,153 +536,300 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>17197</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H2" s="2"/>
+      <c r="I2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1312</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" s="2">
+        <v>14</v>
+      </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>13063</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H3" s="2">
         <v>1110355</v>
       </c>
+      <c r="I3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1312</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O3" s="2">
+        <v>15</v>
+      </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2">
         <v>38760</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H4" s="2"/>
+      <c r="I4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1312</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O4" s="2">
+        <v>16</v>
+      </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2">
         <v>228</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H5" s="2"/>
+      <c r="I5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1312</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O5" s="2">
+        <v>17</v>
+      </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2">
         <v>5000</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H6" s="2"/>
+      <c r="I6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1312</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O6" s="2">
+        <v>18</v>
+      </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2">
         <v>10235</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H7" s="2">
         <v>1944650</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1312</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O7" s="2">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -658,22 +847,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -681,19 +870,19 @@
         <v>34</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="C2" s="2">
         <v>1094</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="G2" s="2">
         <v>50000</v>

--- a/legislator/property/output/normal/孔文吉_2012-04-26_財產申報表_tmpfed71.xlsx
+++ b/legislator/property/output/normal/孔文吉_2012-04-26_財產申報表_tmpfed71.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="39">
   <si>
     <t>name</t>
   </si>
@@ -59,7 +59,10 @@
     <t>index</t>
   </si>
   <si>
-    <t>南投縣仁愛郷廬山段06760000地號</t>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
   <si>
     <t>南投縣仁愛鄉廬山段06760001地號</t>
@@ -89,9 +92,6 @@
     <t>陳秋月</t>
   </si>
   <si>
-    <t>95年10月03日</t>
-  </si>
-  <si>
     <t>98年10月03日</t>
   </si>
   <si>
@@ -126,24 +126,6 @@
   </si>
   <si>
     <t>tmpfed71</t>
-  </si>
-  <si>
-    <t>廠牌型號</t>
-  </si>
-  <si>
-    <t>汽缸容量</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
-    <t>登記（取得）時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
   </si>
   <si>
     <t>中華自小貨</t>
@@ -508,13 +490,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -557,30 +539,38 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>17197</v>
+        <v>13063</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="2"/>
+      <c r="H2" s="2">
+        <v>1110355</v>
+      </c>
       <c r="I2" s="2" t="s">
         <v>33</v>
       </c>
@@ -591,7 +581,7 @@
         <v>35</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M2" s="2">
         <v>1312</v>
@@ -600,34 +590,38 @@
         <v>36</v>
       </c>
       <c r="O2" s="2">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>6531.5</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>13063</v>
+        <v>38760</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="2">
-        <v>1110355</v>
-      </c>
+      <c r="H3" s="2"/>
       <c r="I3" s="2" t="s">
         <v>33</v>
       </c>
@@ -638,7 +632,7 @@
         <v>35</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M3" s="2">
         <v>1312</v>
@@ -647,27 +641,33 @@
         <v>36</v>
       </c>
       <c r="O3" s="2">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>19380</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>38760</v>
+        <v>228</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>30</v>
@@ -683,7 +683,7 @@
         <v>35</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M4" s="2">
         <v>1312</v>
@@ -692,30 +692,36 @@
         <v>36</v>
       </c>
       <c r="O4" s="2">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>228</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2">
-        <v>228</v>
+        <v>5000</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2" t="s">
@@ -728,7 +734,7 @@
         <v>35</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M5" s="2">
         <v>1312</v>
@@ -737,32 +743,40 @@
         <v>36</v>
       </c>
       <c r="O5" s="2">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="P5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>5000</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C6" s="2">
-        <v>5000</v>
+        <v>10235</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" s="2"/>
+        <v>32</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1944650</v>
+      </c>
       <c r="I6" s="2" t="s">
         <v>33</v>
       </c>
@@ -773,7 +787,7 @@
         <v>35</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M6" s="2">
         <v>1312</v>
@@ -782,54 +796,13 @@
         <v>36</v>
       </c>
       <c r="O6" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="1">
         <v>19</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="2">
+      <c r="P6" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="2">
         <v>10235</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" s="2">
-        <v>1944650</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M7" s="2">
-        <v>1312</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="O7" s="2">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -839,52 +812,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="B1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="2:7">
       <c r="B1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="1">
+        <v>1094</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>34</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1094</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G1" s="1">
         <v>50000</v>
       </c>
     </row>

--- a/legislator/property/output/normal/孔文吉_2012-04-26_財產申報表_tmpfed71.xlsx
+++ b/legislator/property/output/normal/孔文吉_2012-04-26_財產申報表_tmpfed71.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="41">
   <si>
     <t>name</t>
   </si>
@@ -65,6 +65,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>南投縣仁愛郷廬山段06760000地號</t>
+  </si>
+  <si>
     <t>南投縣仁愛鄉廬山段06760001地號</t>
   </si>
   <si>
@@ -90,6 +93,9 @@
   </si>
   <si>
     <t>陳秋月</t>
+  </si>
+  <si>
+    <t>95年10月03日</t>
   </si>
   <si>
     <t>98年10月03日</t>
@@ -490,7 +496,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q6"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -548,117 +554,117 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>13063</v>
+        <v>17197</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" s="2">
-        <v>1110355</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="H2" s="2"/>
       <c r="I2" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" s="2">
         <v>1312</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="O2" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P2" s="2">
         <v>0.5</v>
       </c>
       <c r="Q2" s="2">
-        <v>6531.5</v>
+        <v>8598.5</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>38760</v>
+        <v>13063</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" s="2"/>
+        <v>32</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1110355</v>
+      </c>
       <c r="I3" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M3" s="2">
         <v>1312</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="O3" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P3" s="2">
         <v>0.5</v>
       </c>
       <c r="Q3" s="2">
-        <v>19380</v>
+        <v>6531.5</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>228</v>
+        <v>38760</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>22</v>
@@ -667,141 +673,192 @@
         <v>24</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M4" s="2">
         <v>1312</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="O4" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P4" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Q4" s="2">
-        <v>228</v>
+        <v>19380</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="2">
-        <v>5000</v>
+        <v>228</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M5" s="2">
         <v>1312</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="O5" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P5" s="2">
         <v>1</v>
       </c>
       <c r="Q5" s="2">
-        <v>5000</v>
+        <v>228</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="2">
-        <v>10235</v>
+        <v>5000</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L6" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" s="2">
-        <v>1944650</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="M6" s="2">
         <v>1312</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="O6" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P6" s="2">
         <v>1</v>
       </c>
       <c r="Q6" s="2">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="1">
+        <v>19</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="2">
+        <v>10235</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1944650</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1312</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O7" s="2">
+        <v>19</v>
+      </c>
+      <c r="P7" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="2">
         <v>10235</v>
       </c>
     </row>
@@ -812,29 +869,52 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:7">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C1" s="1">
         <v>1094</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G1" s="1">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>34</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1094</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="2">
         <v>50000</v>
       </c>
     </row>

--- a/legislator/property/output/normal/孔文吉_2012-04-26_財產申報表_tmpfed71.xlsx
+++ b/legislator/property/output/normal/孔文吉_2012-04-26_財產申報表_tmpfed71.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="42">
   <si>
     <t>name</t>
   </si>
@@ -132,6 +132,9 @@
   </si>
   <si>
     <t>tmpfed71</t>
+  </si>
+  <si>
+    <t>capacity</t>
   </si>
   <si>
     <t>中華自小貨</t>
@@ -869,38 +872,59 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="1">
-        <v>1094</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" s="1">
-        <v>50000</v>
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>34</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C2" s="2">
         <v>1094</v>
@@ -909,13 +933,34 @@
         <v>25</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>32</v>
       </c>
       <c r="G2" s="2">
         <v>50000</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1312</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" s="2">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/孔文吉_2012-04-26_財產申報表_tmpfed71.xlsx
+++ b/legislator/property/output/normal/孔文吉_2012-04-26_財產申報表_tmpfed71.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="43">
   <si>
     <t>name</t>
   </si>
@@ -141,6 +141,9 @@
   </si>
   <si>
     <t>98年01月31闩</t>
+  </si>
+  <si>
+    <t>car</t>
   </si>
 </sst>
 </file>
@@ -942,7 +945,7 @@
         <v>50000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>36</v>
